--- a/ig/sd-extension-pays-de-recrutement/StructureDefinition-eclaire-recruitment-period.xlsx
+++ b/ig/sd-extension-pays-de-recrutement/StructureDefinition-eclaire-recruitment-period.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-26T16:33:02+00:00</t>
+    <t>2023-07-26T16:38:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
